--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -498,12 +498,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1490708928"/>
-        <c:axId val="1490707296"/>
+        <c:axId val="-1909016048"/>
+        <c:axId val="-1909018768"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1490708928"/>
+        <c:axId val="-1909016048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +540,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490707296"/>
+        <c:crossAx val="-1909018768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -548,7 +548,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1490707296"/>
+        <c:axId val="-1909018768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +599,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490708928"/>
+        <c:crossAx val="-1909016048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,12 +903,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1490713824"/>
-        <c:axId val="1490699136"/>
+        <c:axId val="-1646817840"/>
+        <c:axId val="-1646806416"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1490713824"/>
+        <c:axId val="-1646817840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -945,7 +945,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490699136"/>
+        <c:crossAx val="-1646806416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -953,7 +953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1490699136"/>
+        <c:axId val="-1646806416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +1004,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1490713824"/>
+        <c:crossAx val="-1646817840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,13 +1194,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0938298</c:v>
+                  <c:v>2.4872371000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6451519999999999</c:v>
+                  <c:v>1.8486221</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3032127999999998</c:v>
+                  <c:v>2.5569727000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,10 +1255,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.77333850000000004</c:v>
+                  <c:v>0.64152739999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60762309999999997</c:v>
+                  <c:v>0.47681089999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1277,12 +1277,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1730826176"/>
-        <c:axId val="1730835424"/>
+        <c:axId val="-1646805328"/>
+        <c:axId val="-1646815664"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1730826176"/>
+        <c:axId val="-1646805328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1319,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730835424"/>
+        <c:crossAx val="-1646815664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1730835424"/>
+        <c:axId val="-1646815664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1378,7 +1378,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730826176"/>
+        <c:crossAx val="-1646805328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,12 +1651,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="1730824544"/>
-        <c:axId val="1730827264"/>
+        <c:axId val="-1646811312"/>
+        <c:axId val="-1646814032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1730824544"/>
+        <c:axId val="-1646811312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1693,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730827264"/>
+        <c:crossAx val="-1646814032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1701,7 +1701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1730827264"/>
+        <c:axId val="-1646814032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1752,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730824544"/>
+        <c:crossAx val="-1646811312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4033,16 +4033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4374,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55:L58"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,6 +4386,7 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4421,7 +4422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4944,34 +4945,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K42" s="16" t="s">
         <v>17</v>
       </c>
       <c r="L42" s="6">
-        <v>2.0938298</v>
+        <v>2.4872371000000002</v>
       </c>
       <c r="M42" s="7">
-        <v>0.77333850000000004</v>
+        <v>0.64152739999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K43" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L43" s="6">
-        <v>1.6451519999999999</v>
+        <v>1.8486221</v>
       </c>
       <c r="M43" s="7">
-        <v>0.60762309999999997</v>
+        <v>0.47681089999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K44" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="6">
-        <v>2.3032127999999998</v>
+        <v>2.5569727000000002</v>
       </c>
       <c r="M44" s="8">
         <v>0</v>
